--- a/Input/VBWIMqInput60t.xlsx
+++ b/Input/VBWIMqInput60t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524D8AB0-2049-4064-A1A6-3AF63BDCC252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4073363E-3F15-4F2F-ACD2-6804F138899A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2268" windowWidth="16548" windowHeight="10500" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="2270" windowWidth="16550" windowHeight="8240" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>RunDyn</t>
   </si>
@@ -81,7 +72,31 @@
     <t>Box.Stand.Wid12.Uni</t>
   </si>
   <si>
-    <t>WIM60t</t>
+    <t>WIM60tv2</t>
+  </si>
+  <si>
+    <t>Box.Stand.Wid12.Bi</t>
+  </si>
+  <si>
+    <t>Box.Stand.Wid18.Bi</t>
+  </si>
+  <si>
+    <t>Slab.Short.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>Slab.Short.Wid18.Bi</t>
+  </si>
+  <si>
+    <t>Slab.Long.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>Slab.Long.Wid18.Bi</t>
+  </si>
+  <si>
+    <t>Twin.Stand.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>Twin.Conc.Wid9.Uni</t>
   </si>
 </sst>
 </file>
@@ -470,25 +485,25 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="6" width="10.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -529,9 +544,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>14</v>
@@ -549,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>8</v>
@@ -567,6 +582,334 @@
         <v>1</v>
       </c>
       <c r="M2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>1122</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>1122</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>1122</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
         <v>0</v>
       </c>
     </row>

--- a/Input/VBWIMqInput60t.xlsx
+++ b/Input/VBWIMqInput60t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathevet\MATLAB\Projects\VirtualBridge2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4073363E-3F15-4F2F-ACD2-6804F138899A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DC0D2F-8815-44B4-8C16-5F1FC9403B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2270" windowWidth="16550" windowHeight="8240" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>RunDyn</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Box.Stand.Wid12.Uni</t>
   </si>
   <si>
-    <t>WIM60tv2</t>
-  </si>
-  <si>
     <t>Box.Stand.Wid12.Bi</t>
   </si>
   <si>
@@ -97,6 +94,15 @@
   </si>
   <si>
     <t>Twin.Conc.Wid9.Uni</t>
+  </si>
+  <si>
+    <t>ClassPP</t>
+  </si>
+  <si>
+    <t>WIM60tv6</t>
+  </si>
+  <si>
+    <t>CraneClass</t>
   </si>
 </sst>
 </file>
@@ -485,25 +491,25 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.08984375" style="1"/>
+    <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -543,8 +549,14 @@
       <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>11</v>
       </c>
@@ -573,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K2" s="6">
         <v>0</v>
@@ -584,13 +596,19 @@
       <c r="M2" s="6">
         <v>0</v>
       </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -614,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K3" s="6">
         <v>0</v>
@@ -625,13 +643,19 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1122</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -655,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K4" s="6">
         <v>0</v>
@@ -666,13 +690,19 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
+      <c r="N4" s="7">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6">
         <v>0.1</v>
@@ -696,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
@@ -707,13 +737,19 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1122</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6">
         <v>0.1</v>
@@ -737,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
@@ -748,13 +784,19 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6">
         <v>0.1</v>
@@ -778,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
@@ -789,13 +831,19 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1122</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>0.1</v>
@@ -819,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K8" s="6">
         <v>0</v>
@@ -830,13 +878,19 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -860,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K9" s="6">
         <v>0</v>
@@ -871,13 +925,19 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -901,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K10" s="6">
         <v>0</v>
@@ -911,6 +971,12 @@
       </c>
       <c r="M10" s="6">
         <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Input/VBWIMqInput60t.xlsx
+++ b/Input/VBWIMqInput60t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathevet\MATLAB\Projects\VirtualBridge2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DC0D2F-8815-44B4-8C16-5F1FC9403B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349D4F0F-0725-43BA-A2F6-F032381BF6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -99,10 +99,10 @@
     <t>ClassPP</t>
   </si>
   <si>
-    <t>WIM60tv6</t>
-  </si>
-  <si>
     <t>CraneClass</t>
+  </si>
+  <si>
+    <t>WIM60tv7</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>23</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="6">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" s="6">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="6">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="6">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="6">
         <v>0</v>

--- a/Input/VBWIMqInput60t.xlsx
+++ b/Input/VBWIMqInput60t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathevet\MATLAB\Projects\VirtualBridge2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349D4F0F-0725-43BA-A2F6-F032381BF6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D5363-C2F6-4FE2-B80E-D8795C201B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="5">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5">
         <v>1</v>
@@ -737,8 +737,8 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>1</v>
+      <c r="N5" s="7">
+        <v>0</v>
       </c>
       <c r="O5" s="5">
         <v>1</v>
@@ -784,8 +784,8 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>1</v>
+      <c r="N6" s="7">
+        <v>0</v>
       </c>
       <c r="O6" s="5">
         <v>1</v>
@@ -831,8 +831,8 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>1</v>
+      <c r="N7" s="7">
+        <v>0</v>
       </c>
       <c r="O7" s="5">
         <v>1</v>
@@ -878,8 +878,8 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>1</v>
+      <c r="N8" s="7">
+        <v>0</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -925,8 +925,8 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="5">
-        <v>1</v>
+      <c r="N9" s="7">
+        <v>0</v>
       </c>
       <c r="O9" s="5">
         <v>1</v>
@@ -972,8 +972,8 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <v>1</v>
+      <c r="N10" s="7">
+        <v>0</v>
       </c>
       <c r="O10" s="5">
         <v>1</v>

--- a/Input/VBWIMqInput60t.xlsx
+++ b/Input/VBWIMqInput60t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathevet\MATLAB\Projects\VirtualBridge2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D5363-C2F6-4FE2-B80E-D8795C201B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546EA137-B04C-4903-95CB-12951FE5BE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
     <t>CraneClass</t>
   </si>
   <si>
-    <t>WIM60tv7</t>
+    <t>WIM60tv10</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input/VBWIMqInput60t.xlsx
+++ b/Input/VBWIMqInput60t.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathevet\MATLAB\Projects\VirtualBridge2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546EA137-B04C-4903-95CB-12951FE5BE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EF1A27-91B2-4F01-9ABB-912EC9B3A3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
     <t>CraneClass</t>
   </si>
   <si>
-    <t>WIM60tv10</t>
+    <t>WIM60tv10v1</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input/VBWIMqInput60t.xlsx
+++ b/Input/VBWIMqInput60t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathevet\MATLAB\Projects\VirtualBridge2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EF1A27-91B2-4F01-9ABB-912EC9B3A3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332F2777-900D-43A5-8363-31639753A6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20820" yWindow="-6130" windowWidth="25670" windowHeight="13870" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>RunDyn</t>
   </si>
@@ -36,15 +46,9 @@
     <t>ILRes</t>
   </si>
   <si>
-    <t>Apercu</t>
-  </si>
-  <si>
     <t>ILs</t>
   </si>
   <si>
-    <t>NumAnalyses</t>
-  </si>
-  <si>
     <t>SITE</t>
   </si>
   <si>
@@ -60,15 +64,9 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>LSVA</t>
-  </si>
-  <si>
     <t>Stage2P</t>
   </si>
   <si>
-    <t>StopSim</t>
-  </si>
-  <si>
     <t>Box.Stand.Wid12.Uni</t>
   </si>
   <si>
@@ -96,13 +94,7 @@
     <t>Twin.Conc.Wid9.Uni</t>
   </si>
   <si>
-    <t>ClassPP</t>
-  </si>
-  <si>
-    <t>CraneClass</t>
-  </si>
-  <si>
-    <t>WIM60tv10v1</t>
+    <t>WIM60tv10MS</t>
   </si>
 </sst>
 </file>
@@ -491,30 +483,30 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="5" width="10.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -525,43 +517,25 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -570,45 +544,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -617,45 +573,28 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="str">
+        <f>H2</f>
+        <v>WIM60tv10MS</v>
       </c>
       <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>1</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1122</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -664,45 +603,28 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:H10" si="0">H3</f>
+        <v>WIM60tv10MS</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
         <v>0.1</v>
@@ -711,45 +633,28 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>WIM60tv10MS</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1122</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6">
         <v>0.1</v>
@@ -758,45 +663,28 @@
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>WIM60tv10MS</v>
       </c>
       <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
         <v>0.1</v>
@@ -805,45 +693,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>WIM60tv10MS</v>
       </c>
       <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1122</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6">
         <v>0.1</v>
@@ -852,45 +723,28 @@
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>WIM60tv10MS</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -899,45 +753,28 @@
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>WIM60tv10MS</v>
       </c>
       <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -946,36 +783,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>WIM60tv10MS</v>
       </c>
       <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Input/VBWIMqInput60t.xlsx
+++ b/Input/VBWIMqInput60t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathevet\MATLAB\Projects\VirtualBridge2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332F2777-900D-43A5-8363-31639753A6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB177671-C3BC-4CEA-A5AE-836F54CB1612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20820" yWindow="-6130" windowWidth="25670" windowHeight="13870" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,7 +93,7 @@
     <t>Twin.Conc.Wid9.Uni</t>
   </si>
   <si>
-    <t>WIM60tv10MS</t>
+    <t>WIM60tv11</t>
   </si>
 </sst>
 </file>
@@ -486,22 +485,22 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -530,7 +529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>11</v>
       </c>
@@ -559,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>12</v>
       </c>
@@ -583,13 +582,13 @@
       </c>
       <c r="H3" s="7" t="str">
         <f>H2</f>
-        <v>WIM60tv10MS</v>
+        <v>WIM60tv11</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1122</v>
       </c>
@@ -613,13 +612,13 @@
       </c>
       <c r="H4" s="7" t="str">
         <f t="shared" ref="H4:H10" si="0">H3</f>
-        <v>WIM60tv10MS</v>
+        <v>WIM60tv11</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>11</v>
       </c>
@@ -643,13 +642,13 @@
       </c>
       <c r="H5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
+        <v>WIM60tv11</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1122</v>
       </c>
@@ -673,13 +672,13 @@
       </c>
       <c r="H6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
+        <v>WIM60tv11</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>11</v>
       </c>
@@ -703,13 +702,13 @@
       </c>
       <c r="H7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
+        <v>WIM60tv11</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1122</v>
       </c>
@@ -733,13 +732,13 @@
       </c>
       <c r="H8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
+        <v>WIM60tv11</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>11</v>
       </c>
@@ -763,13 +762,13 @@
       </c>
       <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
+        <v>WIM60tv11</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>11</v>
       </c>
@@ -793,7 +792,7 @@
       </c>
       <c r="H10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
+        <v>WIM60tv11</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>

--- a/Input/VBWIMqInput60t.xlsx
+++ b/Input/VBWIMqInput60t.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Desktop\SwissTraffic2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathevet\MATLAB\Projects\VirtualBridge2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332F2777-900D-43A5-8363-31639753A6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811D8BFF-40F6-4D96-BB70-CB845128A480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20820" yWindow="-6130" windowWidth="25670" windowHeight="13870" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>RunDyn</t>
   </si>
@@ -67,34 +66,22 @@
     <t>Stage2P</t>
   </si>
   <si>
-    <t>Box.Stand.Wid12.Uni</t>
-  </si>
-  <si>
-    <t>Box.Stand.Wid12.Bi</t>
-  </si>
-  <si>
-    <t>Box.Stand.Wid18.Bi</t>
-  </si>
-  <si>
-    <t>Slab.Short.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>Slab.Short.Wid18.Bi</t>
-  </si>
-  <si>
-    <t>Slab.Long.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>Slab.Long.Wid18.Bi</t>
-  </si>
-  <si>
-    <t>Twin.Stand.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>Twin.Conc.Wid9.Uni</t>
-  </si>
-  <si>
-    <t>WIM60tv10MS</t>
+    <t>Uni</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>WIM60t11_10_22</t>
+  </si>
+  <si>
+    <t>Box,Twin,Multi,Slab.Long</t>
+  </si>
+  <si>
+    <t>Slab.Short</t>
+  </si>
+  <si>
+    <t>RType</t>
   </si>
 </sst>
 </file>
@@ -145,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -165,6 +152,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,25 +473,25 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="5" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -529,13 +519,16 @@
       <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -553,21 +546,24 @@
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -581,20 +577,22 @@
       <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="str">
-        <f>H2</f>
-        <v>WIM60tv10MS</v>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1122</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -611,20 +609,22 @@
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="str">
-        <f t="shared" ref="H4:H10" si="0">H3</f>
-        <v>WIM60tv10MS</v>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="6">
         <v>0.1</v>
@@ -641,163 +641,183 @@
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>1122</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="J5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>1122</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>WIM60tv10MS</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
